--- a/resources/experiment 1/metrics/MAPE/incidence/Macroalbuminuria (INC).xlsx
+++ b/resources/experiment 1/metrics/MAPE/incidence/Macroalbuminuria (INC).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6658792748069431</v>
+        <v>0.6658792748069419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6658792748069429</v>
+        <v>0.665879274806943</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6658792748069429</v>
+        <v>0.665879274806943</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03538109250350729</v>
+        <v>0.03542861843485547</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03544471875767991</v>
+        <v>0.03195324278056939</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03544471875767991</v>
+        <v>0.1320174499681472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04115644928917675</v>
+        <v>0.03587529838346575</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04115644928917673</v>
+        <v>0.03389033849072908</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04115644928917673</v>
+        <v>0.05238001152482729</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2308293351452612</v>
+        <v>0.03836556192561748</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2308293351452612</v>
+        <v>0.05306162557692551</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2308293351452612</v>
+        <v>0.06921077816248632</v>
       </c>
     </row>
   </sheetData>
